--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-625622.2413728379</v>
+        <v>-627509.82288924</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>220.2907500477012</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>140.5319313114545</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22.35153719005458</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.0546783332129</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>71.99387417745309</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>102.2627734989842</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>88.85876175969173</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>78.88684406884218</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>150.7923813103633</v>
       </c>
       <c r="D8" t="n">
-        <v>352.3005925494354</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>145.7891836420063</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>188.1607094910705</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>212.5748148019229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>172.7067178467369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>249.4744389338037</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>145.1181220076144</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>31.13654107019752</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052011</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5269768002182</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>143.3158222056521</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274313</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>95.02525064967719</v>
+        <v>143.3158222056525</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.043564470071</v>
+        <v>8.815482471233004</v>
       </c>
       <c r="D31" t="n">
         <v>93.4122163896555</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801231</v>
       </c>
       <c r="F31" t="n">
-        <v>70.15391853501978</v>
+        <v>90.21779139437439</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897927</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571513</v>
+        <v>55.2159888357151</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523594</v>
+        <v>54.76109577523589</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550464</v>
@@ -3007,7 +3007,7 @@
         <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080341</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206854</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898879</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113193</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052011</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3597,10 +3597,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U40" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224542</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1463.674302457628</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="C2" t="n">
-        <v>1463.674302457628</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="D2" t="n">
-        <v>1105.408603850877</v>
+        <v>1146.134560982273</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>760.3463083840284</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>349.3604035944208</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.674302457628</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="Y2" t="n">
-        <v>1463.674302457628</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,31 +4428,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.2609724030931</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="C4" t="n">
-        <v>405.2609724030931</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="D4" t="n">
-        <v>405.2609724030931</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>626.0535515466232</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>626.0535515466232</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>626.0535515466232</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>626.0535515466232</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>626.0535515466232</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W4" t="n">
-        <v>626.0535515466232</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X4" t="n">
-        <v>626.0535515466232</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="Y4" t="n">
-        <v>405.2609724030931</v>
+        <v>76.52029211334889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.879478346266</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>582.1480214784358</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>582.1480214784358</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>575.2025207292323</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>157.2387126274192</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4607,10 +4607,10 @@
         <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1700.479318410388</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,16 +4653,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.0282177315058</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>280.0282177315058</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>280.0282177315058</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
         <v>190.2718927217162</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.0282177315058</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2088.375092014473</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1719.412575074062</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990285</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.375092014473</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>484.4236418782189</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>484.4236418782189</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>484.4236418782189</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>337.5336943803085</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>337.5336943803085</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5124,13 +5124,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>881.753191430675</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C13" t="n">
-        <v>712.817008502768</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904322</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904322</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925218</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,22 +5197,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X13" t="n">
-        <v>1284.194235404445</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y13" t="n">
-        <v>1063.401656260915</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5361,13 +5361,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028562</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V16" t="n">
-        <v>835.4163915387937</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018331</v>
+        <v>441.9005583181186</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038157</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028562</v>
+        <v>213.9110074201013</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,31 +5817,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775507</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834045</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>562.0930141766539</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9763747643182</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.465218971845</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1267.545208887397</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045608</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>731.0291971045608</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.0291971045608</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,46 +5972,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834045</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181195</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201021</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028591</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822487</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.0729548808317</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529248</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262962</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765198</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>531.3977182706329</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336723</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854601</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110713</v>
+        <v>97.21709146028591</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646847</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4560528787315</v>
+        <v>439.5324299542155</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2807352321952</v>
+        <v>430.6279022054953</v>
       </c>
       <c r="D31" t="n">
-        <v>430.92496110123</v>
+        <v>336.2721280745301</v>
       </c>
       <c r="E31" t="n">
-        <v>430.92496110123</v>
+        <v>244.1198997735075</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264628</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021646</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.260356661997</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1101.604051906407</v>
+        <v>902.6804289818911</v>
       </c>
       <c r="X31" t="n">
-        <v>929.3753662897602</v>
+        <v>730.4517433652443</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3436524276007</v>
+        <v>565.4200295030846</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,55 +6695,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108342</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,10 +6862,10 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942117</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045219</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010329</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7002,7 +7002,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,34 +7072,34 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,10 +7169,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7181,37 +7181,37 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823764</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514063</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775507</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834045</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,19 +7582,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775507</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834045</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7795,49 +7795,49 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010319</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978066</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>124.3400780863214</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>85.30006332127681</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298189</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229567</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305124</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720713</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978066</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.47535963978066</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>33.38685156731879</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.13484058711429</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841056</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43092547709108</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>37.04855940278728</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>1.315840638954768</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>78.82781133359524</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.89407122271299</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644266</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>130.6844047393599</v>
+        <v>82.39383318338463</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>103.228081998838</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801231</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>20.06387285935461</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.508349014024313e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,10 +26320,10 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="F2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="G2" t="n">
         <v>195514.5298688544</v>
@@ -26341,13 +26341,13 @@
         <v>203411.0686726353</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660711</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660711</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.352540372565272e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284543</v>
+        <v>44162.6053028453</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086709</v>
+        <v>10342.90680086718</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284545</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26433,31 +26433,31 @@
         <v>7916.731656007498</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007377</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007372</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020394</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732783</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732787</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732784</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002543</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002543</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002543</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-615483.563527804</v>
+        <v>-615483.5635278041</v>
       </c>
       <c r="C6" t="n">
-        <v>-25515.68431325952</v>
+        <v>-25515.68431325949</v>
       </c>
       <c r="D6" t="n">
         <v>-25515.68431325952</v>
       </c>
       <c r="E6" t="n">
-        <v>-429549.5642127658</v>
+        <v>-429647.023338738</v>
       </c>
       <c r="F6" t="n">
-        <v>95610.47226413027</v>
+        <v>95513.01313815819</v>
       </c>
       <c r="G6" t="n">
-        <v>95610.47226413029</v>
+        <v>95513.01313815813</v>
       </c>
       <c r="H6" t="n">
-        <v>95610.47226413029</v>
+        <v>95513.01313815774</v>
       </c>
       <c r="I6" t="n">
-        <v>95610.47226413025</v>
+        <v>95513.01313815804</v>
       </c>
       <c r="J6" t="n">
-        <v>-80812.74692846273</v>
+        <v>-80910.20605443478</v>
       </c>
       <c r="K6" t="n">
-        <v>36538.90066936317</v>
+        <v>36520.40693142894</v>
       </c>
       <c r="L6" t="n">
-        <v>66866.9109478506</v>
+        <v>66866.91094785073</v>
       </c>
       <c r="M6" t="n">
-        <v>-57591.19748511944</v>
+        <v>-57591.19748511929</v>
       </c>
       <c r="N6" t="n">
-        <v>77209.81774871779</v>
+        <v>77209.81774871791</v>
       </c>
       <c r="O6" t="n">
-        <v>77209.81774871776</v>
+        <v>77209.8177487178</v>
       </c>
       <c r="P6" t="n">
-        <v>33047.2124458723</v>
+        <v>33047.21244587228</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>55.20325662855685</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26808,22 +26808,22 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108386</v>
+        <v>12.92863350108376</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855681</v>
+        <v>55.20325662855688</v>
       </c>
     </row>
     <row r="3">
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>161.6396200245605</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>273.2522387093405</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>144.9582650689963</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>45.61051364694499</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>293.2790175935544</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>221.659999265373</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>57.57520088687744</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>139.6978092832526</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>214.4805104606442</v>
       </c>
       <c r="D8" t="n">
-        <v>2.382449071247549</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10.3817051997888</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-2.330580173293129e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35492,16 +35492,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35729,16 +35729,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35896,7 +35896,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958052</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367879</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773014</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412238</v>
+        <v>67.71102679412243</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004316</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595513</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734233</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595513</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541597</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415056</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958052</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958052</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
